--- a/HBExerciseStudy_2200vs4200.xlsx
+++ b/HBExerciseStudy_2200vs4200.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wag001\Desktop\Tatum_Group_Training\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="11940" windowHeight="5412"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="5415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -254,14 +259,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,346 +279,16 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -636,251 +305,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -904,61 +331,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -967,7 +350,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -998,6 +381,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tibetan Male and Female HB vs VO2/BMI 4200</a:t>
             </a:r>
           </a:p>
@@ -1012,26 +396,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan Males"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan Males</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan Males</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1055,9 +451,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1075,9 +468,10 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.173545569798563"/>
-                  <c:y val="-0.12599718442046"/>
+                  <c:y val="-0.12599718442046001"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1102,6 +496,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1149,31 +544,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>52.7834</c:v>
+                  <c:v>52.783400000000107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.5540234375</c:v>
+                  <c:v>61.554023437500113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.4681282258065</c:v>
+                  <c:v>74.468128225806524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.4473074074074</c:v>
+                  <c:v>75.447307407407408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5457415254237</c:v>
+                  <c:v>74.545741525423722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.2257298387097</c:v>
+                  <c:v>93.225729838709782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.562675862069</c:v>
+                  <c:v>71.562675862069099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.14358</c:v>
+                  <c:v>54.143580000000121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.965215</c:v>
+                  <c:v>53.965214999999851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,15 +579,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan Females"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan Females</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan Females</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1216,9 +603,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1235,10 +619,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0426445626144528"/>
-                  <c:y val="0.177850774284374"/>
+                  <c:x val="4.2644562614452798E-2"/>
+                  <c:y val="0.17785077428437401"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1263,6 +648,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1307,28 +693,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42.1098305084746</c:v>
+                  <c:v>42.109830508474573</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.9384615384615</c:v>
+                  <c:v>59.938461538461539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.8396710784314</c:v>
+                  <c:v>57.83967107843123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.010546875</c:v>
+                  <c:v>50.010546874999967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.9994491525424</c:v>
+                  <c:v>49.999449152542397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.840873015873</c:v>
+                  <c:v>44.840873015873036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.2593356097561</c:v>
+                  <c:v>58.259335609755986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.720835046729</c:v>
+                  <c:v>47.720835046728979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,11 +729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="922742994"/>
-        <c:axId val="594849437"/>
+        <c:axId val="168703952"/>
+        <c:axId val="168704512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="922742994"/>
+        <c:axId val="168703952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1388,6 +774,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -1402,8 +789,28 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1437,14 +844,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594849437"/>
+        <c:crossAx val="168704512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="594849437"/>
+        <c:axId val="168704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,6 +892,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -1498,6 +907,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1533,9 +962,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922742994"/>
+        <c:crossAx val="168703952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1575,6 +1005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1604,18 +1035,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1646,6 +1080,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tibetan and Han Male HB vs VO2/BMI 2200</a:t>
             </a:r>
           </a:p>
@@ -1655,8 +1090,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.141011392053348"/>
-          <c:y val="0.0374331550802139"/>
+          <c:x val="0.14101139205334801"/>
+          <c:y val="3.7433155080213901E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1667,26 +1102,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Male"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Male</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1710,9 +1157,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1729,10 +1173,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0755061867266592"/>
+                  <c:x val="7.5506186726659194E-2"/>
                   <c:y val="0.163030729533193"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1757,6 +1202,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1774,16 +1220,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.4</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.6</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.1</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16.5</c:v>
@@ -1798,22 +1244,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>85.7077881481482</c:v>
+                  <c:v>85.707788148148197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.0567259259258</c:v>
+                  <c:v>69.056725925925804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.6705373134329</c:v>
+                  <c:v>81.670537313432902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.8184121621623</c:v>
+                  <c:v>81.818412162162304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.0919563636364</c:v>
+                  <c:v>80.091956363636399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.3885253906251</c:v>
+                  <c:v>70.388525390625105</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.3163304999999</c:v>
@@ -1827,15 +1273,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan Male"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan Male</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1859,9 +1297,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1879,9 +1314,10 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.168728908886389"/>
-                  <c:y val="-0.222144030025803"/>
+                  <c:y val="-0.22214403002580299"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1906,6 +1342,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1932,10 +1369,10 @@
                   <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.1</c:v>
+                  <c:v>16.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.8</c:v>
@@ -1959,31 +1396,31 @@
                   <c:v>112.002628571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.5121326086958</c:v>
+                  <c:v>74.512132608695794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.9904531250002</c:v>
+                  <c:v>79.990453125000201</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>107.882298983871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.015362962963</c:v>
+                  <c:v>85.015362962962996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.1983898305085</c:v>
+                  <c:v>80.198389830508503</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>86.2084975806453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.6896046896553</c:v>
+                  <c:v>79.689604689655297</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>103.08978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.3962569999997</c:v>
+                  <c:v>92.396256999999693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,11 +1435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="676656346"/>
-        <c:axId val="308655030"/>
+        <c:axId val="171300544"/>
+        <c:axId val="171301104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="676656346"/>
+        <c:axId val="171300544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="14"/>
@@ -2043,6 +1480,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -2057,6 +1495,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2092,14 +1550,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308655030"/>
+        <c:crossAx val="171301104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308655030"/>
+        <c:axId val="171301104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -2140,6 +1599,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -2154,6 +1614,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2189,9 +1669,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676656346"/>
+        <c:crossAx val="171300544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2231,6 +1712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2260,18 +1742,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2302,6 +1787,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Han and Tibetan Female HB vs VO2/BMI 2200</a:t>
             </a:r>
           </a:p>
@@ -2316,26 +1802,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Female"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Female</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2359,9 +1857,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2378,10 +1873,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.02625"/>
+                  <c:x val="-2.6249999999999999E-2"/>
                   <c:y val="0.195916383082158"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2406,6 +1902,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2447,22 +1944,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58.0582848214285</c:v>
+                  <c:v>58.058284821428501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.8542201834863</c:v>
+                  <c:v>49.854220183486298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.0313392857142</c:v>
+                  <c:v>66.031339285714196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.9669431818181</c:v>
+                  <c:v>41.966943181818102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.835705882353</c:v>
+                  <c:v>38.835705882352997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.916255319149</c:v>
+                  <c:v>40.916255319149002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>48.107906</c:v>
@@ -2476,15 +1973,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan Female"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan Female</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2508,9 +1997,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2528,9 +2014,10 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.100976215277778"/>
-                  <c:y val="-0.162372386971317"/>
+                  <c:y val="-0.16237238697131701"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2555,6 +2042,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2596,25 +2084,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.3348338983051</c:v>
+                  <c:v>63.334833898305099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.8123076923077</c:v>
+                  <c:v>56.812307692307698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.715950980392</c:v>
+                  <c:v>73.715950980391995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.0626875</c:v>
+                  <c:v>51.062687500000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.2209542372882</c:v>
+                  <c:v>63.220954237288197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.3402512195121</c:v>
+                  <c:v>61.340251219512098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.3560514018692</c:v>
+                  <c:v>58.356051401869202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,11 +2117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="312447650"/>
-        <c:axId val="883539195"/>
+        <c:axId val="171303904"/>
+        <c:axId val="171304464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312447650"/>
+        <c:axId val="171303904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -2674,6 +2162,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -2688,6 +2177,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2723,14 +2232,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883539195"/>
+        <c:crossAx val="171304464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="883539195"/>
+        <c:axId val="171304464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -2771,6 +2281,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -2785,6 +2296,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2820,9 +2351,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312447650"/>
+        <c:crossAx val="171303904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2862,6 +2394,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2891,18 +2424,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2933,6 +2469,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tibetan Females 4200 vs 2200 HB vs VO2/BMI</a:t>
             </a:r>
           </a:p>
@@ -2947,26 +2484,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"TibetanFemale4200"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TibetanFemale4200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>TibetanFemale4200</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2990,9 +2539,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -3009,10 +2555,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00885826771653543"/>
-                  <c:y val="0.170302603800141"/>
+                  <c:x val="-8.8582677165354295E-3"/>
+                  <c:y val="0.17030260380014101"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3037,6 +2584,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3081,22 +2629,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42.1098305084746</c:v>
+                  <c:v>42.109830508474602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.9384615384615</c:v>
+                  <c:v>59.938461538461503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.8396710784314</c:v>
+                  <c:v>57.839671078431401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.010546875</c:v>
+                  <c:v>50.010546875000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.9994491525424</c:v>
+                  <c:v>49.999449152542397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.840873015873</c:v>
+                  <c:v>44.840873015873001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>58.2593356097561</c:v>
@@ -3113,15 +2661,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"TibetanFemale2200"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TibetanFemale2200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>TibetanFemale2200</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3145,9 +2685,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -3164,10 +2701,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.03107424071991"/>
+                  <c:x val="3.1074240719909999E-2"/>
                   <c:y val="-0.118695754163734"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3192,6 +2730,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3257,25 +2796,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.3348338983051</c:v>
+                  <c:v>63.334833898305099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.8123076923077</c:v>
+                  <c:v>56.812307692307698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.715950980392</c:v>
+                  <c:v>73.715950980391995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.0626875</c:v>
+                  <c:v>51.062687500000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.2209542372882</c:v>
+                  <c:v>63.220954237288197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.3402512195121</c:v>
+                  <c:v>61.340251219512098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.3560514018692</c:v>
+                  <c:v>58.356051401869202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,11 +2829,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466851783"/>
-        <c:axId val="363321639"/>
+        <c:axId val="171717456"/>
+        <c:axId val="171718016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466851783"/>
+        <c:axId val="171717456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -3335,6 +2874,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -3349,6 +2889,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3384,14 +2944,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363321639"/>
+        <c:crossAx val="171718016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363321639"/>
+        <c:axId val="171718016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,6 +2992,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -3440,7 +3002,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0329258127257572"/>
+              <c:x val="3.2925812725757203E-2"/>
               <c:y val="0.352139037433155"/>
             </c:manualLayout>
           </c:layout>
@@ -3452,6 +3014,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3487,9 +3069,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466851783"/>
+        <c:crossAx val="171717456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3529,6 +3112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3558,18 +3142,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3600,6 +3187,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Overall Tibetans vs Han Chinese HB vs VO2/BMI @ 2200 and 4200</a:t>
             </a:r>
           </a:p>
@@ -3614,26 +3202,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetans"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetans</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetans</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3657,9 +3257,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -3676,10 +3273,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.25659791528055"/>
-                  <c:y val="-0.0615352082892789"/>
+                  <c:x val="-0.25659791528054998"/>
+                  <c:y val="-6.15352082892789E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3704,6 +3302,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3730,10 +3329,10 @@
                   <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.1</c:v>
+                  <c:v>16.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.8</c:v>
@@ -3829,52 +3428,52 @@
                   <c:v>112.002628571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.5121326086958</c:v>
+                  <c:v>74.512132608695794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.9904531250002</c:v>
+                  <c:v>79.990453125000201</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>107.882298983871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.015362962963</c:v>
+                  <c:v>85.015362962962996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.1983898305085</c:v>
+                  <c:v>80.198389830508503</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>86.2084975806453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.6896046896553</c:v>
+                  <c:v>79.689604689655297</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>103.08978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.3962569999997</c:v>
+                  <c:v>92.396256999999693</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.3348338983051</c:v>
+                  <c:v>63.334833898305099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.8123076923077</c:v>
+                  <c:v>56.812307692307698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.715950980392</c:v>
+                  <c:v>73.715950980391995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.0626875</c:v>
+                  <c:v>51.062687500000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.2209542372882</c:v>
+                  <c:v>63.220954237288197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.3402512195121</c:v>
+                  <c:v>61.340251219512098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.3560514018692</c:v>
+                  <c:v>58.356051401869202</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>52.7834</c:v>
@@ -3883,16 +3482,16 @@
                   <c:v>61.5540234375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74.4681282258065</c:v>
+                  <c:v>74.468128225806495</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.4473074074074</c:v>
+                  <c:v>75.447307407407393</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.5457415254237</c:v>
+                  <c:v>74.545741525423693</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>93.2257298387097</c:v>
+                  <c:v>93.225729838709697</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>71.562675862069</c:v>
@@ -3901,25 +3500,25 @@
                   <c:v>54.14358</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53.965215</c:v>
+                  <c:v>53.965215000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.1098305084746</c:v>
+                  <c:v>42.109830508474602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>59.9384615384615</c:v>
+                  <c:v>59.938461538461503</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57.8396710784314</c:v>
+                  <c:v>57.839671078431401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.010546875</c:v>
+                  <c:v>50.010546875000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.9994491525424</c:v>
+                  <c:v>49.999449152542397</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.840873015873</c:v>
+                  <c:v>44.840873015873001</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>58.2593356097561</c:v>
@@ -3936,15 +3535,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Chinese"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Chinese</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Chinese</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3968,9 +3559,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -3987,10 +3575,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0569971168773564"/>
-                  <c:y val="0.177627405371114"/>
+                  <c:x val="5.6997116877356403E-2"/>
+                  <c:y val="0.17762740537111399"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4015,6 +3604,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4032,16 +3622,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.4</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.6</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.1</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16.5</c:v>
@@ -4077,10 +3667,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.1</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.4</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>18.2</c:v>
@@ -4131,91 +3721,91 @@
                   <c:v>52.9557075111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.8816939259259</c:v>
+                  <c:v>76.881693925925902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.1248564189189</c:v>
+                  <c:v>53.124856418918903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.726565</c:v>
+                  <c:v>84.726564999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.0995054545455</c:v>
+                  <c:v>62.099505454545501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.0875087890625</c:v>
+                  <c:v>52.087508789062497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.6116</c:v>
+                  <c:v>70.611599999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.3178959183674</c:v>
+                  <c:v>44.317895918367398</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27.3028397321429</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.417121559633</c:v>
+                  <c:v>49.417121559633003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.2968517857143</c:v>
+                  <c:v>36.296851785714303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.1897170151515</c:v>
+                  <c:v>38.189717015151501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.1082941176471</c:v>
+                  <c:v>61.108294117647098</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.5831057021277</c:v>
+                  <c:v>34.583105702127703</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.928475</c:v>
+                  <c:v>27.928474999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.276048</c:v>
+                  <c:v>81.276048000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.1702117647059</c:v>
+                  <c:v>76.170211764705897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.7077881481482</c:v>
+                  <c:v>85.707788148148197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69.0567259259258</c:v>
+                  <c:v>69.056725925925804</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81.6705373134329</c:v>
+                  <c:v>81.670537313432902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81.8184121621623</c:v>
+                  <c:v>81.818412162162304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>80.0919563636364</c:v>
+                  <c:v>80.091956363636399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70.3885253906251</c:v>
+                  <c:v>70.388525390625105</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>51.3163304999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58.0582848214285</c:v>
+                  <c:v>58.058284821428501</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.8542201834863</c:v>
+                  <c:v>49.854220183486298</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.0313392857142</c:v>
+                  <c:v>66.031339285714196</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.9669431818181</c:v>
+                  <c:v>41.966943181818102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38.835705882353</c:v>
+                  <c:v>38.835705882352997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.916255319149</c:v>
+                  <c:v>40.916255319149002</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>48.107906</c:v>
@@ -4233,11 +3823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="591467610"/>
-        <c:axId val="246977733"/>
+        <c:axId val="171720816"/>
+        <c:axId val="171721376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="591467610"/>
+        <c:axId val="171720816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -4278,6 +3868,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -4292,6 +3883,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4327,14 +3938,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246977733"/>
+        <c:crossAx val="171721376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246977733"/>
+        <c:axId val="171721376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -4375,6 +3987,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -4389,6 +4002,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4424,9 +4057,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591467610"/>
+        <c:crossAx val="171720816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4466,6 +4100,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4495,18 +4130,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4537,6 +4175,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Han Male and Female HB vs VO2/BMI 4200</a:t>
             </a:r>
           </a:p>
@@ -4551,26 +4190,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Males"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Males</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Males</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4594,9 +4245,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -4613,10 +4261,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0533878010987463"/>
-                  <c:y val="0.25944170771757"/>
+                  <c:x val="5.3387801098746301E-2"/>
+                  <c:y val="0.25944170771757002"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4641,6 +4290,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4661,10 +4311,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.1</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.4</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.2</c:v>
@@ -4682,25 +4332,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>52.9557075111111</c:v>
+                  <c:v>52.955707511111157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.8816939259259</c:v>
+                  <c:v>76.881693925925816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.1248564189189</c:v>
+                  <c:v>53.12485641891903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.726565</c:v>
+                  <c:v>84.726565000000036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.0995054545455</c:v>
+                  <c:v>62.099505454545508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.0875087890625</c:v>
+                  <c:v>52.087508789062589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.6116</c:v>
+                  <c:v>70.611599999999868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4711,15 +4361,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Females"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Females</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Females</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4743,9 +4385,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -4762,10 +4401,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00677391181856593"/>
+                  <c:x val="6.77391181856593E-3"/>
                   <c:y val="-0.163030729533193"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4790,6 +4430,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4840,34 +4481,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44.3178959183674</c:v>
+                  <c:v>44.317895918367299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.3028397321429</c:v>
+                  <c:v>27.302839732142836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.417121559633</c:v>
+                  <c:v>49.417121559633095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.2968517857143</c:v>
+                  <c:v>36.29685178571426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.1897170151515</c:v>
+                  <c:v>38.18971701515148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.1082941176471</c:v>
+                  <c:v>61.108294117647162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.5831057021277</c:v>
+                  <c:v>34.583105702127718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.928475</c:v>
+                  <c:v>27.928474999999953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.276048</c:v>
+                  <c:v>81.276048000000031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.1702117647059</c:v>
+                  <c:v>76.170211764705911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,11 +4523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="619514201"/>
-        <c:axId val="240643607"/>
+        <c:axId val="169466672"/>
+        <c:axId val="169467232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="619514201"/>
+        <c:axId val="169466672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -4927,6 +4568,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -4941,8 +4583,28 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4976,14 +4638,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240643607"/>
+        <c:crossAx val="169467232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240643607"/>
+        <c:axId val="169467232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,6 +4686,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -5037,6 +4701,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5072,9 +4756,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619514201"/>
+        <c:crossAx val="169466672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5114,6 +4799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5143,18 +4829,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5185,6 +4874,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tibetan and Han Male HB vs VO2/BMI 4200</a:t>
             </a:r>
           </a:p>
@@ -5199,26 +4889,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Males"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Males</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Males</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5242,9 +4944,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -5261,10 +4960,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0666479190101237"/>
-                  <c:y val="0.288998357963875"/>
+                  <c:x val="6.6647919010123693E-2"/>
+                  <c:y val="0.28899835796387502"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5289,6 +4989,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5309,10 +5010,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.1</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.4</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.2</c:v>
@@ -5330,25 +5031,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>52.9557075111111</c:v>
+                  <c:v>52.955707511111157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.8816939259259</c:v>
+                  <c:v>76.881693925925816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.1248564189189</c:v>
+                  <c:v>53.12485641891903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.726565</c:v>
+                  <c:v>84.726565000000036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.0995054545455</c:v>
+                  <c:v>62.099505454545508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.0875087890625</c:v>
+                  <c:v>52.087508789062589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.6116</c:v>
+                  <c:v>70.611599999999868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5359,15 +5060,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan Males"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan Males</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan Males</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5391,9 +5084,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -5410,10 +5100,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0888638920134983"/>
-                  <c:y val="-0.118461177574478"/>
+                  <c:x val="-8.88638920134983E-2"/>
+                  <c:y val="-0.11846117757447799"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5438,6 +5129,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5485,31 +5177,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>52.7834</c:v>
+                  <c:v>52.783400000000107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.5540234375</c:v>
+                  <c:v>61.554023437500113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.4681282258065</c:v>
+                  <c:v>74.468128225806524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.4473074074074</c:v>
+                  <c:v>75.447307407407408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5457415254237</c:v>
+                  <c:v>74.545741525423722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.2257298387097</c:v>
+                  <c:v>93.225729838709782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.562675862069</c:v>
+                  <c:v>71.562675862069099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.14358</c:v>
+                  <c:v>54.143580000000121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.965215</c:v>
+                  <c:v>53.965214999999851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,11 +5216,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370662922"/>
-        <c:axId val="627338702"/>
+        <c:axId val="169470032"/>
+        <c:axId val="169470592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370662922"/>
+        <c:axId val="169470032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5570,6 +5262,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -5584,8 +5277,28 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5619,14 +5332,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627338702"/>
+        <c:crossAx val="169470592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627338702"/>
+        <c:axId val="169470592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5666,6 +5380,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -5680,6 +5395,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5715,9 +5450,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370662922"/>
+        <c:crossAx val="169470032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5757,6 +5493,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5786,18 +5523,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5828,6 +5568,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tibetan and Han Female HB vs VO2/BMI 4200</a:t>
             </a:r>
           </a:p>
@@ -5842,26 +5583,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Female"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Female</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5885,9 +5638,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -5905,9 +5655,10 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.105088495575221"/>
-                  <c:y val="0.257142857142857"/>
+                  <c:y val="0.25714285714285701"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5932,6 +5683,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5982,34 +5734,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44.3178959183674</c:v>
+                  <c:v>44.317895918367299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.3028397321429</c:v>
+                  <c:v>27.302839732142836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.417121559633</c:v>
+                  <c:v>49.417121559633095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.2968517857143</c:v>
+                  <c:v>36.29685178571426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.1897170151515</c:v>
+                  <c:v>38.18971701515148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.1082941176471</c:v>
+                  <c:v>61.108294117647162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.5831057021277</c:v>
+                  <c:v>34.583105702127718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.928475</c:v>
+                  <c:v>27.928474999999953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.276048</c:v>
+                  <c:v>81.276048000000031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.1702117647059</c:v>
+                  <c:v>76.170211764705911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6020,15 +5772,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan Female"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan Female</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6052,9 +5796,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -6071,10 +5812,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.169200170821161"/>
+                  <c:x val="-0.16920017082116101"/>
                   <c:y val="-0.161904761904762"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6099,6 +5841,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6143,28 +5886,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42.1098305084746</c:v>
+                  <c:v>42.109830508474573</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.9384615384615</c:v>
+                  <c:v>59.938461538461539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.8396710784314</c:v>
+                  <c:v>57.83967107843123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.010546875</c:v>
+                  <c:v>50.010546874999967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.9994491525424</c:v>
+                  <c:v>49.999449152542397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.840873015873</c:v>
+                  <c:v>44.840873015873036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.2593356097561</c:v>
+                  <c:v>58.259335609755986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.720835046729</c:v>
+                  <c:v>47.720835046728979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6179,11 +5922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="916758017"/>
-        <c:axId val="175066806"/>
+        <c:axId val="170558848"/>
+        <c:axId val="170559408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="916758017"/>
+        <c:axId val="170558848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -6224,6 +5967,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -6238,8 +5982,28 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6273,14 +6037,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175066806"/>
+        <c:crossAx val="170559408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175066806"/>
+        <c:axId val="170559408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6320,6 +6085,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -6334,6 +6100,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6369,9 +6155,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916758017"/>
+        <c:crossAx val="170558848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6411,6 +6198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6440,18 +6228,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6482,6 +6273,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tibetan vs Han HB vs VO2/BMI 4200</a:t>
             </a:r>
           </a:p>
@@ -6496,26 +6288,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Chinese"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Chinese</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Chinese</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6539,9 +6343,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -6558,10 +6359,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0443548387096774"/>
-                  <c:y val="0.251851851851852"/>
+                  <c:x val="4.4354838709677401E-2"/>
+                  <c:y val="0.25185185185185199"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6586,6 +6388,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6606,10 +6409,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.1</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.4</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.2</c:v>
@@ -6657,55 +6460,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>52.9557075111111</c:v>
+                  <c:v>52.955707511111157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.8816939259259</c:v>
+                  <c:v>76.881693925925816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.1248564189189</c:v>
+                  <c:v>53.12485641891903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.726565</c:v>
+                  <c:v>84.726565000000036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.0995054545455</c:v>
+                  <c:v>62.099505454545508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.0875087890625</c:v>
+                  <c:v>52.087508789062589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.6116</c:v>
+                  <c:v>70.611599999999868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.3178959183674</c:v>
+                  <c:v>44.317895918367299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.3028397321429</c:v>
+                  <c:v>27.302839732142836</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.417121559633</c:v>
+                  <c:v>49.417121559633095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.2968517857143</c:v>
+                  <c:v>36.29685178571426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.1897170151515</c:v>
+                  <c:v>38.18971701515148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.1082941176471</c:v>
+                  <c:v>61.108294117647162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.5831057021277</c:v>
+                  <c:v>34.583105702127718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.928475</c:v>
+                  <c:v>27.928474999999953</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.276048</c:v>
+                  <c:v>81.276048000000031</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.1702117647059</c:v>
+                  <c:v>76.170211764705911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6716,15 +6519,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6748,9 +6543,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -6768,9 +6560,10 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.141129032258065"/>
-                  <c:y val="-0.103703703703704"/>
+                  <c:y val="-0.10370370370370401"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6795,6 +6588,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6866,55 +6660,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>52.7834</c:v>
+                  <c:v>52.783400000000107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.5540234375</c:v>
+                  <c:v>61.554023437500113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.4681282258065</c:v>
+                  <c:v>74.468128225806524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.4473074074074</c:v>
+                  <c:v>75.447307407407408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5457415254237</c:v>
+                  <c:v>74.545741525423722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.2257298387097</c:v>
+                  <c:v>93.225729838709782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.562675862069</c:v>
+                  <c:v>71.562675862069099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.14358</c:v>
+                  <c:v>54.143580000000121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.965215</c:v>
+                  <c:v>53.965214999999851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.1098305084746</c:v>
+                  <c:v>42.109830508474573</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.9384615384615</c:v>
+                  <c:v>59.938461538461539</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.8396710784314</c:v>
+                  <c:v>57.83967107843123</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.010546875</c:v>
+                  <c:v>50.010546874999967</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.9994491525424</c:v>
+                  <c:v>49.999449152542397</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.840873015873</c:v>
+                  <c:v>44.840873015873036</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.2593356097561</c:v>
+                  <c:v>58.259335609755986</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.720835046729</c:v>
+                  <c:v>47.720835046728979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6929,11 +6723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289093778"/>
-        <c:axId val="994617670"/>
+        <c:axId val="170695920"/>
+        <c:axId val="170696480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289093778"/>
+        <c:axId val="170695920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -6974,6 +6768,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -6988,8 +6783,28 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7023,14 +6838,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994617670"/>
+        <c:crossAx val="170696480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="994617670"/>
+        <c:axId val="170696480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7070,6 +6886,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -7079,8 +6896,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0276548672566372"/>
-              <c:y val="0.37897619047619"/>
+              <c:x val="2.7654867256637201E-2"/>
+              <c:y val="0.37897619047619002"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7091,6 +6908,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7126,9 +6963,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289093778"/>
+        <c:crossAx val="170695920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7168,6 +7006,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7197,18 +7036,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7239,6 +7081,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tibetan Male 2200 vs 4200 HB vs VO2/BMI</a:t>
             </a:r>
           </a:p>
@@ -7253,26 +7096,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"TibetanMale2200"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TibetanMale2200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>TibetanMale2200</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7296,9 +7151,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -7315,10 +7167,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.211944444444444"/>
+                  <c:x val="-0.21194444444444399"/>
                   <c:y val="-0.116646415552855"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -7343,6 +7196,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7369,10 +7223,10 @@
                   <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.1</c:v>
+                  <c:v>16.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.8</c:v>
@@ -7396,31 +7250,31 @@
                   <c:v>112.002628571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.5121326086958</c:v>
+                  <c:v>74.512132608695794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.9904531250002</c:v>
+                  <c:v>79.990453125000201</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>107.882298983871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.015362962963</c:v>
+                  <c:v>85.015362962962996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.1983898305085</c:v>
+                  <c:v>80.198389830508503</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>86.2084975806453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.6896046896553</c:v>
+                  <c:v>79.689604689655297</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>103.08978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.3962569999997</c:v>
+                  <c:v>92.396256999999693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7431,15 +7285,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"TibetanMale4200"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TibetanMale4200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>TibetanMale4200</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7463,9 +7309,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -7482,10 +7325,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00236111111111111"/>
-                  <c:y val="0.258323207776428"/>
+                  <c:x val="-2.3611111111111098E-3"/>
+                  <c:y val="0.25832320777642798"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -7510,6 +7354,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7563,16 +7408,16 @@
                   <c:v>61.5540234375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.4681282258065</c:v>
+                  <c:v>74.468128225806495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.4473074074074</c:v>
+                  <c:v>75.447307407407393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5457415254237</c:v>
+                  <c:v>74.545741525423693</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.2257298387097</c:v>
+                  <c:v>93.225729838709697</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>71.562675862069</c:v>
@@ -7581,7 +7426,7 @@
                   <c:v>54.14358</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.965215</c:v>
+                  <c:v>53.965215000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7596,11 +7441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151006905"/>
-        <c:axId val="96235903"/>
+        <c:axId val="170699280"/>
+        <c:axId val="170795456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151006905"/>
+        <c:axId val="170699280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="13"/>
@@ -7641,6 +7486,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -7655,6 +7501,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7690,14 +7556,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96235903"/>
+        <c:crossAx val="170795456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96235903"/>
+        <c:axId val="170795456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7737,6 +7604,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -7751,6 +7619,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7786,9 +7674,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151006905"/>
+        <c:crossAx val="170699280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7828,6 +7717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7857,18 +7747,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7899,6 +7792,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tibetan Male and Female HB vs VO2/BMI 2200</a:t>
             </a:r>
           </a:p>
@@ -7913,26 +7807,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan Male"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan Male</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7956,9 +7862,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -7979,6 +7882,7 @@
                   <c:y val="-0.174799708667152"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -8003,6 +7907,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8029,10 +7934,10 @@
                   <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.1</c:v>
+                  <c:v>16.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.8</c:v>
@@ -8056,31 +7961,31 @@
                   <c:v>112.002628571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.5121326086958</c:v>
+                  <c:v>74.512132608695794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.9904531250002</c:v>
+                  <c:v>79.990453125000201</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>107.882298983871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.015362962963</c:v>
+                  <c:v>85.015362962962996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.1983898305085</c:v>
+                  <c:v>80.198389830508503</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>86.2084975806453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.6896046896553</c:v>
+                  <c:v>79.689604689655297</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>103.08978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.3962569999997</c:v>
+                  <c:v>92.396256999999693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8091,15 +7996,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan Female"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan Female</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8123,9 +8020,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -8142,10 +8036,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.2987921875"/>
-                  <c:y val="0.0415149308084487"/>
+                  <c:x val="0.29879218749999997"/>
+                  <c:y val="4.1514930808448702E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -8170,6 +8065,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8211,25 +8107,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.3348338983051</c:v>
+                  <c:v>63.334833898305099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.8123076923077</c:v>
+                  <c:v>56.812307692307698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.715950980392</c:v>
+                  <c:v>73.715950980391995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.0626875</c:v>
+                  <c:v>51.062687500000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.2209542372882</c:v>
+                  <c:v>63.220954237288197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.3402512195121</c:v>
+                  <c:v>61.340251219512098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.3560514018692</c:v>
+                  <c:v>58.356051401869202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8244,11 +8140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165695247"/>
-        <c:axId val="232790926"/>
+        <c:axId val="170798256"/>
+        <c:axId val="170798816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165695247"/>
+        <c:axId val="170798256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="11"/>
@@ -8289,6 +8185,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -8303,6 +8200,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8338,14 +8255,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232790926"/>
+        <c:crossAx val="170798816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232790926"/>
+        <c:axId val="170798816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -8386,6 +8304,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -8400,6 +8319,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8435,9 +8374,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165695247"/>
+        <c:crossAx val="170798256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8477,6 +8417,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8506,18 +8447,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8548,6 +8492,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Han Male and Female HB vs VO2/BMI 2200</a:t>
             </a:r>
           </a:p>
@@ -8562,26 +8507,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Male"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Male</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8605,9 +8562,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -8624,10 +8578,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0540309028266066"/>
-                  <c:y val="0.345296853423615"/>
+                  <c:x val="5.4030902826606601E-2"/>
+                  <c:y val="0.34529685342361499"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -8652,6 +8607,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8669,16 +8625,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.4</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.6</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.1</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16.5</c:v>
@@ -8693,22 +8649,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>85.7077881481482</c:v>
+                  <c:v>85.707788148148197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.0567259259258</c:v>
+                  <c:v>69.056725925925804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.6705373134329</c:v>
+                  <c:v>81.670537313432902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.8184121621623</c:v>
+                  <c:v>81.818412162162304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.0919563636364</c:v>
+                  <c:v>80.091956363636399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.3885253906251</c:v>
+                  <c:v>70.388525390625105</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.3163304999999</c:v>
@@ -8722,15 +8678,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han Female"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han Female</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8754,9 +8702,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -8773,10 +8718,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.081144424131627"/>
-                  <c:y val="-0.353209166254134"/>
+                  <c:x val="-8.1144424131626994E-2"/>
+                  <c:y val="-0.35320916625413401"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -8801,6 +8747,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8842,22 +8789,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58.0582848214285</c:v>
+                  <c:v>58.058284821428501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.8542201834863</c:v>
+                  <c:v>49.854220183486298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.0313392857142</c:v>
+                  <c:v>66.031339285714196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.9669431818181</c:v>
+                  <c:v>41.966943181818102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.835705882353</c:v>
+                  <c:v>38.835705882352997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.916255319149</c:v>
+                  <c:v>40.916255319149002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>48.107906</c:v>
@@ -8875,11 +8822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81536975"/>
-        <c:axId val="903155086"/>
+        <c:axId val="170801616"/>
+        <c:axId val="170802736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81536975"/>
+        <c:axId val="170801616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -8920,6 +8867,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -8929,8 +8877,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4949375"/>
-              <c:y val="0.874088478366553"/>
+              <c:x val="0.49493749999999997"/>
+              <c:y val="0.87408847836655301"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8941,6 +8889,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8976,14 +8944,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="903155086"/>
+        <c:crossAx val="170802736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="903155086"/>
+        <c:axId val="170802736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="30"/>
@@ -9024,6 +8993,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -9038,6 +9008,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9073,9 +9063,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81536975"/>
+        <c:crossAx val="170801616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9115,6 +9106,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9144,18 +9136,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9186,6 +9181,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Han vs Tibetan HB vs VO2/BMI 2200</a:t>
             </a:r>
           </a:p>
@@ -9200,26 +9196,38 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Han"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Han</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Han</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9243,9 +9251,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -9262,10 +9267,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0596081700708629"/>
-                  <c:y val="0.291332847778587"/>
+                  <c:x val="5.9608170070862901E-2"/>
+                  <c:y val="0.29133284777858698"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -9290,6 +9296,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9307,16 +9314,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.4</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.6</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.1</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16.5</c:v>
@@ -9352,43 +9359,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>85.7077881481482</c:v>
+                  <c:v>85.707788148148197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.0567259259258</c:v>
+                  <c:v>69.056725925925804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.6705373134329</c:v>
+                  <c:v>81.670537313432902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.8184121621623</c:v>
+                  <c:v>81.818412162162304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.0919563636364</c:v>
+                  <c:v>80.091956363636399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.3885253906251</c:v>
+                  <c:v>70.388525390625105</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.3163304999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.0582848214285</c:v>
+                  <c:v>58.058284821428501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.8542201834863</c:v>
+                  <c:v>49.854220183486298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.0313392857142</c:v>
+                  <c:v>66.031339285714196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.9669431818181</c:v>
+                  <c:v>41.966943181818102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.835705882353</c:v>
+                  <c:v>38.835705882352997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.916255319149</c:v>
+                  <c:v>40.916255319149002</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>48.107906</c:v>
@@ -9402,15 +9409,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Tibetan"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tibetan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Tibetan</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9434,9 +9433,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -9454,9 +9450,10 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.173822426010838"/>
-                  <c:y val="-0.0415149308084487"/>
+                  <c:y val="-4.1514930808448702E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -9481,6 +9478,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9507,10 +9505,10 @@
                   <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.1</c:v>
+                  <c:v>16.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.8</c:v>
@@ -9555,52 +9553,52 @@
                   <c:v>112.002628571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.5121326086958</c:v>
+                  <c:v>74.512132608695794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.9904531250002</c:v>
+                  <c:v>79.990453125000201</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>107.882298983871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.015362962963</c:v>
+                  <c:v>85.015362962962996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.1983898305085</c:v>
+                  <c:v>80.198389830508503</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>86.2084975806453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.6896046896553</c:v>
+                  <c:v>79.689604689655297</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>103.08978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.3962569999997</c:v>
+                  <c:v>92.396256999999693</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.3348338983051</c:v>
+                  <c:v>63.334833898305099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.8123076923077</c:v>
+                  <c:v>56.812307692307698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.715950980392</c:v>
+                  <c:v>73.715950980391995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.0626875</c:v>
+                  <c:v>51.062687500000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.2209542372882</c:v>
+                  <c:v>63.220954237288197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.3402512195121</c:v>
+                  <c:v>61.340251219512098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.3560514018692</c:v>
+                  <c:v>58.356051401869202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9615,11 +9613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101013682"/>
-        <c:axId val="55800871"/>
+        <c:axId val="171042048"/>
+        <c:axId val="171045408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101013682"/>
+        <c:axId val="171042048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -9660,6 +9658,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>HB Concentration</a:t>
                 </a:r>
               </a:p>
@@ -9674,6 +9673,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9709,14 +9728,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55800871"/>
+        <c:crossAx val="171045408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55800871"/>
+        <c:axId val="171045408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9756,6 +9776,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>VO2/BMI</a:t>
                 </a:r>
               </a:p>
@@ -9770,6 +9791,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9805,9 +9846,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101013682"/>
+        <c:crossAx val="171042048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9847,6 +9889,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9876,11 +9919,14 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -17113,7 +17159,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -17127,14 +17173,14 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>59690</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10860405" y="2803525"/>
-        <a:ext cx="4572000" cy="2742565"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17157,14 +17203,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10886440" y="12700"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17187,14 +17233,14 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>166370</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5707380" y="2909570"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17217,14 +17263,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88265</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5358765" y="88265"/>
-        <a:ext cx="5371465" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17247,14 +17293,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="221615" y="9525"/>
-        <a:ext cx="4724400" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17277,14 +17323,14 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="552450" y="11907520"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17307,14 +17353,14 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10931525" y="8736965"/>
-        <a:ext cx="4572000" cy="2742565"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17337,14 +17383,14 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>62230</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11000740" y="5731510"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17367,14 +17413,14 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="388620" y="5933440"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17397,14 +17443,14 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5734685" y="5692140"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17427,14 +17473,14 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6035675" y="8778240"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17457,14 +17503,14 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>21590</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="657225" y="14834870"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17487,14 +17533,14 @@
       <xdr:row>93</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="14" name="Chart 13"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6292215" y="11949430"/>
-        <a:ext cx="8829040" cy="5220335"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17508,7 +17554,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4200"/>
@@ -17521,340 +17567,272 @@
           <cell r="D2">
             <v>17.5</v>
           </cell>
-        </row>
-        <row r="2">
           <cell r="I2">
-            <v>52.9557075111111</v>
+            <v>52.955707511111157</v>
           </cell>
         </row>
         <row r="3">
           <cell r="D3">
             <v>18.7</v>
           </cell>
-        </row>
-        <row r="3">
           <cell r="I3">
-            <v>76.8816939259259</v>
+            <v>76.881693925925816</v>
           </cell>
         </row>
         <row r="4">
           <cell r="D4">
             <v>16</v>
           </cell>
-        </row>
-        <row r="4">
           <cell r="I4">
-            <v>53.1248564189189</v>
+            <v>53.12485641891903</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>18.1</v>
+            <v>18.100000000000001</v>
           </cell>
-        </row>
-        <row r="5">
           <cell r="I5">
-            <v>84.726565</v>
+            <v>84.726565000000036</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>16.4</v>
+            <v>16.399999999999999</v>
           </cell>
-        </row>
-        <row r="6">
           <cell r="I6">
-            <v>62.0995054545455</v>
+            <v>62.099505454545508</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
             <v>18.2</v>
           </cell>
-        </row>
-        <row r="7">
           <cell r="I7">
-            <v>52.0875087890625</v>
+            <v>52.087508789062589</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
             <v>16.5</v>
           </cell>
-        </row>
-        <row r="8">
           <cell r="I8">
-            <v>70.6116</v>
+            <v>70.611599999999868</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
             <v>14.8</v>
           </cell>
-        </row>
-        <row r="9">
           <cell r="I9">
-            <v>44.3178959183674</v>
+            <v>44.317895918367299</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
             <v>14.1</v>
           </cell>
-        </row>
-        <row r="10">
           <cell r="I10">
-            <v>27.3028397321429</v>
+            <v>27.302839732142836</v>
           </cell>
         </row>
         <row r="11">
           <cell r="D11">
             <v>12.1</v>
           </cell>
-        </row>
-        <row r="11">
           <cell r="I11">
-            <v>49.417121559633</v>
+            <v>49.417121559633095</v>
           </cell>
         </row>
         <row r="12">
           <cell r="D12">
             <v>14.3</v>
           </cell>
-        </row>
-        <row r="12">
           <cell r="I12">
-            <v>36.2968517857143</v>
+            <v>36.29685178571426</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
             <v>11.5</v>
           </cell>
-        </row>
-        <row r="13">
           <cell r="I13">
-            <v>38.1897170151515</v>
+            <v>38.18971701515148</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
             <v>14.6</v>
           </cell>
-        </row>
-        <row r="14">
           <cell r="I14">
-            <v>61.1082941176471</v>
+            <v>61.108294117647162</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
             <v>14.3</v>
           </cell>
-        </row>
-        <row r="15">
           <cell r="I15">
-            <v>34.5831057021277</v>
+            <v>34.583105702127718</v>
           </cell>
         </row>
         <row r="16">
           <cell r="D16">
             <v>13.1</v>
           </cell>
-        </row>
-        <row r="16">
           <cell r="I16">
-            <v>27.928475</v>
+            <v>27.928474999999953</v>
           </cell>
         </row>
         <row r="17">
           <cell r="D17">
             <v>14.6</v>
           </cell>
-        </row>
-        <row r="17">
           <cell r="I17">
-            <v>81.276048</v>
+            <v>81.276048000000031</v>
           </cell>
         </row>
         <row r="18">
           <cell r="D18">
             <v>14.1</v>
           </cell>
-        </row>
-        <row r="18">
           <cell r="I18">
-            <v>76.1702117647059</v>
+            <v>76.170211764705911</v>
           </cell>
         </row>
         <row r="19">
           <cell r="D19">
             <v>14.6</v>
           </cell>
-        </row>
-        <row r="19">
           <cell r="I19">
-            <v>52.7834</v>
+            <v>52.783400000000107</v>
           </cell>
         </row>
         <row r="20">
           <cell r="D20">
             <v>17.5</v>
           </cell>
-        </row>
-        <row r="20">
           <cell r="I20">
-            <v>61.5540234375</v>
+            <v>61.554023437500113</v>
           </cell>
         </row>
         <row r="21">
           <cell r="D21">
             <v>15.6</v>
           </cell>
-        </row>
-        <row r="21">
           <cell r="I21">
-            <v>74.4681282258065</v>
+            <v>74.468128225806524</v>
           </cell>
         </row>
         <row r="22">
           <cell r="D22">
             <v>16.3</v>
           </cell>
-        </row>
-        <row r="22">
           <cell r="I22">
-            <v>75.4473074074074</v>
+            <v>75.447307407407408</v>
           </cell>
         </row>
         <row r="23">
           <cell r="D23">
             <v>15.6</v>
           </cell>
-        </row>
-        <row r="23">
           <cell r="I23">
-            <v>74.5457415254237</v>
+            <v>74.545741525423722</v>
           </cell>
         </row>
         <row r="24">
           <cell r="D24">
             <v>15.6</v>
           </cell>
-        </row>
-        <row r="24">
           <cell r="I24">
-            <v>93.2257298387097</v>
+            <v>93.225729838709782</v>
           </cell>
         </row>
         <row r="25">
           <cell r="D25">
             <v>15.1</v>
           </cell>
-        </row>
-        <row r="25">
           <cell r="I25">
-            <v>71.562675862069</v>
+            <v>71.562675862069099</v>
           </cell>
         </row>
         <row r="26">
           <cell r="D26">
             <v>16.8</v>
           </cell>
-        </row>
-        <row r="26">
           <cell r="I26">
-            <v>54.14358</v>
+            <v>54.143580000000121</v>
           </cell>
         </row>
         <row r="27">
           <cell r="D27">
             <v>14</v>
           </cell>
-        </row>
-        <row r="27">
           <cell r="I27">
-            <v>53.965215</v>
+            <v>53.965214999999851</v>
           </cell>
         </row>
         <row r="28">
           <cell r="D28">
             <v>13.7</v>
           </cell>
-        </row>
-        <row r="28">
           <cell r="I28">
-            <v>42.1098305084746</v>
+            <v>42.109830508474573</v>
           </cell>
         </row>
         <row r="29">
           <cell r="D29">
             <v>13.2</v>
           </cell>
-        </row>
-        <row r="29">
           <cell r="I29">
-            <v>59.9384615384615</v>
+            <v>59.938461538461539</v>
           </cell>
         </row>
         <row r="30">
           <cell r="D30">
             <v>10.3</v>
           </cell>
-        </row>
-        <row r="30">
           <cell r="I30">
-            <v>57.8396710784314</v>
+            <v>57.83967107843123</v>
           </cell>
         </row>
         <row r="31">
           <cell r="D31">
             <v>11.6</v>
           </cell>
-        </row>
-        <row r="31">
           <cell r="I31">
-            <v>50.010546875</v>
+            <v>50.010546874999967</v>
           </cell>
         </row>
         <row r="32">
           <cell r="D32">
             <v>12.9</v>
           </cell>
-        </row>
-        <row r="32">
           <cell r="I32">
-            <v>49.9994491525424</v>
+            <v>49.999449152542397</v>
           </cell>
         </row>
         <row r="33">
           <cell r="D33">
             <v>14.3</v>
           </cell>
-        </row>
-        <row r="33">
           <cell r="I33">
-            <v>44.840873015873</v>
+            <v>44.840873015873036</v>
           </cell>
         </row>
         <row r="34">
           <cell r="D34">
             <v>14.7</v>
           </cell>
-        </row>
-        <row r="34">
           <cell r="I34">
-            <v>58.2593356097561</v>
+            <v>58.259335609755986</v>
           </cell>
         </row>
         <row r="35">
           <cell r="D35">
             <v>13.5</v>
           </cell>
-        </row>
-        <row r="35">
           <cell r="I35">
-            <v>47.720835046729</v>
+            <v>47.720835046728979</v>
           </cell>
         </row>
       </sheetData>
@@ -18115,24 +18093,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="10.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="10.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.8888888888889"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18178,7 +18156,7 @@
         <v>28.637037037037</v>
       </c>
       <c r="G2" s="2">
-        <v>85.7077881481482</v>
+        <v>85.707788148148197</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -18195,13 +18173,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="3">
-        <v>0.242222222222222</v>
+        <v>0.24222222222222201</v>
       </c>
       <c r="F3" s="3">
-        <v>23.3425925925926</v>
+        <v>23.342592592592599</v>
       </c>
       <c r="G3" s="2">
-        <v>69.0567259259258</v>
+        <v>69.056725925925804</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -18215,7 +18193,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E4" s="3">
         <v>0.247083811710677</v>
@@ -18224,7 +18202,7 @@
         <v>28.2597014925373</v>
       </c>
       <c r="G4" s="2">
-        <v>81.6705373134329</v>
+        <v>81.670537313432902</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -18238,16 +18216,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>0.215108108108108</v>
+        <v>0.21510810810810799</v>
       </c>
       <c r="F5" s="3">
         <v>26.7162162162162</v>
       </c>
       <c r="G5" s="2">
-        <v>81.8184121621623</v>
+        <v>81.818412162162304</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -18261,16 +18239,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E6" s="3">
-        <v>0.247454545454545</v>
+        <v>0.24745454545454501</v>
       </c>
       <c r="F6" s="3">
-        <v>27.0727272727273</v>
+        <v>27.072727272727299</v>
       </c>
       <c r="G6" s="2">
-        <v>80.0919563636364</v>
+        <v>80.091956363636399</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -18284,7 +18262,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E7" s="3">
         <v>0.193359375</v>
@@ -18293,7 +18271,7 @@
         <v>25.390625</v>
       </c>
       <c r="G7" s="2">
-        <v>70.3885253906251</v>
+        <v>70.388525390625105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -18310,10 +18288,10 @@
         <v>16.5</v>
       </c>
       <c r="E8" s="3">
-        <v>0.281349206349206</v>
+        <v>0.28134920634920602</v>
       </c>
       <c r="F8" s="3">
-        <v>17.5494444444444</v>
+        <v>17.549444444444401</v>
       </c>
       <c r="G8" s="2">
         <v>51.3163304999999</v>
@@ -18333,13 +18311,13 @@
         <v>14.8</v>
       </c>
       <c r="E9" s="3">
-        <v>0.190625</v>
+        <v>0.19062499999999999</v>
       </c>
       <c r="F9" s="3">
-        <v>22.8214285714286</v>
+        <v>22.821428571428601</v>
       </c>
       <c r="G9" s="2">
-        <v>58.0582848214285</v>
+        <v>58.058284821428501</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -18356,13 +18334,13 @@
         <v>12.4</v>
       </c>
       <c r="E10" s="3">
-        <v>0.206605504587156</v>
+        <v>0.20660550458715601</v>
       </c>
       <c r="F10" s="3">
-        <v>18.3119266055046</v>
+        <v>18.311926605504599</v>
       </c>
       <c r="G10" s="2">
-        <v>49.8542201834863</v>
+        <v>49.854220183486298</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -18379,13 +18357,13 @@
         <v>15</v>
       </c>
       <c r="E11" s="3">
-        <v>0.249196428571429</v>
+        <v>0.24919642857142901</v>
       </c>
       <c r="F11" s="3">
-        <v>22.8482142857143</v>
+        <v>22.848214285714299</v>
       </c>
       <c r="G11" s="2">
-        <v>66.0313392857142</v>
+        <v>66.031339285714196</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -18405,10 +18383,10 @@
         <v>0.147792207792208</v>
       </c>
       <c r="F12" s="3">
-        <v>15.7954545454545</v>
+        <v>15.795454545454501</v>
       </c>
       <c r="G12" s="2">
-        <v>41.9669431818181</v>
+        <v>41.966943181818102</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -18425,13 +18403,13 @@
         <v>16.2</v>
       </c>
       <c r="E13" s="3">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F13" s="3">
-        <v>16.1647058823529</v>
+        <v>16.164705882352902</v>
       </c>
       <c r="G13" s="2">
-        <v>38.835705882353</v>
+        <v>38.835705882352997</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -18448,13 +18426,13 @@
         <v>14.2</v>
       </c>
       <c r="E14" s="3">
-        <v>0.152340425531915</v>
+        <v>0.15234042553191501</v>
       </c>
       <c r="F14" s="3">
         <v>15.2127659574468</v>
       </c>
       <c r="G14" s="2">
-        <v>40.916255319149</v>
+        <v>40.916255319149002</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -18497,7 +18475,7 @@
         <v>0.318526785714286</v>
       </c>
       <c r="F16" s="3">
-        <v>41.6428571428571</v>
+        <v>41.642857142857103</v>
       </c>
       <c r="G16" s="2">
         <v>112.002628571429</v>
@@ -18517,13 +18495,13 @@
         <v>17.5</v>
       </c>
       <c r="E17" s="3">
-        <v>0.205833333333333</v>
+        <v>0.20583333333333301</v>
       </c>
       <c r="F17" s="3">
         <v>26.7173913043478</v>
       </c>
       <c r="G17" s="2">
-        <v>74.5121326086958</v>
+        <v>74.512132608695794</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -18540,13 +18518,13 @@
         <v>18.2</v>
       </c>
       <c r="E18" s="3">
-        <v>0.228125</v>
+        <v>0.22812499999999999</v>
       </c>
       <c r="F18" s="3">
-        <v>29.38125</v>
+        <v>29.381250000000001</v>
       </c>
       <c r="G18" s="2">
-        <v>79.9904531250002</v>
+        <v>79.990453125000201</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -18563,10 +18541,10 @@
         <v>15.3</v>
       </c>
       <c r="E19" s="3">
-        <v>0.285282258064516</v>
+        <v>0.28528225806451601</v>
       </c>
       <c r="F19" s="3">
-        <v>38.6827419354839</v>
+        <v>38.682741935483897</v>
       </c>
       <c r="G19" s="2">
         <v>107.882298983871</v>
@@ -18586,13 +18564,13 @@
         <v>17.2</v>
       </c>
       <c r="E20" s="3">
-        <v>0.254814814814815</v>
+        <v>0.25481481481481499</v>
       </c>
       <c r="F20" s="3">
-        <v>30.8518518518519</v>
+        <v>30.851851851851901</v>
       </c>
       <c r="G20" s="2">
-        <v>85.015362962963</v>
+        <v>85.015362962962996</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -18606,16 +18584,16 @@
         <v>9</v>
       </c>
       <c r="D21" s="3">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E21" s="3">
         <v>0.28135593220339</v>
       </c>
       <c r="F21" s="3">
-        <v>29.4576271186441</v>
+        <v>29.457627118644101</v>
       </c>
       <c r="G21" s="2">
-        <v>80.1983898305085</v>
+        <v>80.198389830508503</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -18629,13 +18607,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="3">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E22" s="3">
         <v>0.248185483870968</v>
       </c>
       <c r="F22" s="3">
-        <v>30.9112903225806</v>
+        <v>30.911290322580601</v>
       </c>
       <c r="G22" s="2">
         <v>86.2084975806453</v>
@@ -18655,13 +18633,13 @@
         <v>15.8</v>
       </c>
       <c r="E23" s="3">
-        <v>0.280714285714286</v>
+        <v>0.28071428571428603</v>
       </c>
       <c r="F23" s="3">
-        <v>26.936724137931</v>
+        <v>26.936724137931002</v>
       </c>
       <c r="G23" s="2">
-        <v>79.6896046896553</v>
+        <v>79.689604689655297</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -18678,10 +18656,10 @@
         <v>17.2</v>
       </c>
       <c r="E24" s="3">
-        <v>0.261690476190476</v>
+        <v>0.26169047619047597</v>
       </c>
       <c r="F24" s="3">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="G24" s="2">
         <v>103.08978</v>
@@ -18704,10 +18682,10 @@
         <v>0.3034</v>
       </c>
       <c r="F25" s="3">
-        <v>33.13</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="G25" s="2">
-        <v>92.3962569999997</v>
+        <v>92.396256999999693</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -18724,13 +18702,13 @@
         <v>14.1</v>
       </c>
       <c r="E26" s="3">
-        <v>0.1509200968523</v>
+        <v>0.15092009685230001</v>
       </c>
       <c r="F26" s="3">
         <v>24.7401694915254</v>
       </c>
       <c r="G26" s="2">
-        <v>63.3348338983051</v>
+        <v>63.334833898305099</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -18747,13 +18725,13 @@
         <v>14.3</v>
       </c>
       <c r="E27" s="3">
-        <v>0.198205128205128</v>
+        <v>0.19820512820512801</v>
       </c>
       <c r="F27" s="3">
-        <v>22.1923076923077</v>
+        <v>22.192307692307701</v>
       </c>
       <c r="G27" s="2">
-        <v>56.8123076923077</v>
+        <v>56.812307692307698</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -18770,13 +18748,13 @@
         <v>11.6</v>
       </c>
       <c r="E28" s="3">
-        <v>0.266134453781513</v>
+        <v>0.26613445378151301</v>
       </c>
       <c r="F28" s="3">
-        <v>27.7450980392157</v>
+        <v>27.745098039215701</v>
       </c>
       <c r="G28" s="2">
-        <v>73.715950980392</v>
+        <v>73.715950980391995</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -18793,13 +18771,13 @@
         <v>12.7</v>
       </c>
       <c r="E29" s="3">
-        <v>0.243580729166667</v>
+        <v>0.24358072916666701</v>
       </c>
       <c r="F29" s="3">
-        <v>17.66875</v>
+        <v>17.668749999999999</v>
       </c>
       <c r="G29" s="2">
-        <v>51.0626875</v>
+        <v>51.062687500000003</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -18816,13 +18794,13 @@
         <v>13.4</v>
       </c>
       <c r="E30" s="3">
-        <v>0.271334745762712</v>
+        <v>0.27133474576271199</v>
       </c>
       <c r="F30" s="3">
         <v>21.8757627118644</v>
       </c>
       <c r="G30" s="2">
-        <v>63.2209542372882</v>
+        <v>63.220954237288197</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -18839,16 +18817,16 @@
         <v>13.5</v>
       </c>
       <c r="E31" s="3">
-        <v>0.246707317073171</v>
+        <v>0.24670731707317101</v>
       </c>
       <c r="F31" s="3">
-        <v>26.9024390243902</v>
+        <v>26.902439024390201</v>
       </c>
       <c r="G31" s="2">
-        <v>61.3402512195121</v>
+        <v>61.340251219512098</v>
       </c>
     </row>
-    <row r="32" ht="15.15" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
@@ -18862,16 +18840,15 @@
         <v>13.5</v>
       </c>
       <c r="E32" s="5">
-        <v>0.250654205607477</v>
+        <v>0.25065420560747698</v>
       </c>
       <c r="F32" s="5">
         <v>24.2897196261682</v>
       </c>
       <c r="G32" s="2">
-        <v>58.3560514018692</v>
+        <v>58.356051401869202</v>
       </c>
     </row>
-    <row r="33" ht="15.15"/>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>43</v>
@@ -18886,7 +18863,7 @@
         <v>17.5</v>
       </c>
       <c r="E34" s="7">
-        <v>0.293851851851852</v>
+        <v>0.29385185185185198</v>
       </c>
       <c r="F34" s="2">
         <v>17.6937777777778</v>
@@ -18909,13 +18886,13 @@
         <v>18.7</v>
       </c>
       <c r="E35" s="7">
-        <v>0.21887037037037</v>
+        <v>0.21887037037036999</v>
       </c>
       <c r="F35" s="2">
-        <v>25.9875925925926</v>
+        <v>25.987592592592598</v>
       </c>
       <c r="G35" s="2">
-        <v>76.8816939259259</v>
+        <v>76.881693925925902</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -18932,13 +18909,13 @@
         <v>16</v>
       </c>
       <c r="E36" s="7">
-        <v>0.208030888030888</v>
+        <v>0.20803088803088801</v>
       </c>
       <c r="F36" s="2">
         <v>17.3468918918919</v>
       </c>
       <c r="G36" s="2">
-        <v>53.1248564189189</v>
+        <v>53.124856418918903</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -18952,16 +18929,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="3">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E37" s="7">
-        <v>0.252886363636364</v>
+        <v>0.25288636363636402</v>
       </c>
       <c r="F37" s="2">
-        <v>29.1454545454545</v>
+        <v>29.145454545454498</v>
       </c>
       <c r="G37" s="2">
-        <v>84.726565</v>
+        <v>84.726564999999994</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -18975,16 +18952,16 @@
         <v>9</v>
       </c>
       <c r="D38" s="3">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E38" s="7">
-        <v>0.204590909090909</v>
+        <v>0.20459090909090899</v>
       </c>
       <c r="F38" s="2">
-        <v>20.9909090909091</v>
+        <v>20.990909090909099</v>
       </c>
       <c r="G38" s="2">
-        <v>62.0995054545455</v>
+        <v>62.099505454545501</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -19001,13 +18978,13 @@
         <v>18.2</v>
       </c>
       <c r="E39" s="7">
-        <v>0.22890625</v>
+        <v>0.22890625000000001</v>
       </c>
       <c r="F39" s="2">
         <v>18.7890625</v>
       </c>
       <c r="G39" s="2">
-        <v>52.0875087890625</v>
+        <v>52.087508789062497</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -19024,13 +19001,13 @@
         <v>16.5</v>
       </c>
       <c r="E40" s="7">
-        <v>0.191805555555556</v>
+        <v>0.19180555555555601</v>
       </c>
       <c r="F40" s="2">
-        <v>24.1481481481481</v>
+        <v>24.148148148148099</v>
       </c>
       <c r="G40" s="2">
-        <v>70.6116</v>
+        <v>70.611599999999996</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -19047,13 +19024,13 @@
         <v>14.8</v>
       </c>
       <c r="E41" s="7">
-        <v>0.245510204081633</v>
+        <v>0.24551020408163299</v>
       </c>
       <c r="F41" s="2">
-        <v>17.9795918367347</v>
+        <v>17.979591836734699</v>
       </c>
       <c r="G41" s="2">
-        <v>44.3178959183674</v>
+        <v>44.317895918367398</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -19070,7 +19047,7 @@
         <v>14.1</v>
       </c>
       <c r="E42" s="7">
-        <v>0.152589285714286</v>
+        <v>0.15258928571428601</v>
       </c>
       <c r="F42" s="2">
         <v>10.7321428571429</v>
@@ -19093,13 +19070,13 @@
         <v>12.1</v>
       </c>
       <c r="E43" s="7">
-        <v>0.145264643613267</v>
+        <v>0.14526464361326699</v>
       </c>
       <c r="F43" s="2">
-        <v>18.151376146789</v>
+        <v>18.151376146789001</v>
       </c>
       <c r="G43" s="2">
-        <v>49.417121559633</v>
+        <v>49.417121559633003</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -19116,13 +19093,13 @@
         <v>14.3</v>
       </c>
       <c r="E44" s="7">
-        <v>0.24280612244898</v>
+        <v>0.24280612244898001</v>
       </c>
       <c r="F44" s="2">
         <v>12.5594642857143</v>
       </c>
       <c r="G44" s="2">
-        <v>36.2968517857143</v>
+        <v>36.296851785714303</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -19142,10 +19119,10 @@
         <v>0.172705627705627</v>
       </c>
       <c r="F45" s="2">
-        <v>14.3737878787879</v>
+        <v>14.373787878787899</v>
       </c>
       <c r="G45" s="2">
-        <v>38.1897170151515</v>
+        <v>38.189717015151501</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -19162,13 +19139,13 @@
         <v>14.6</v>
       </c>
       <c r="E46" s="7">
-        <v>0.289411764705882</v>
+        <v>0.28941176470588198</v>
       </c>
       <c r="F46" s="2">
         <v>25.4352941176471</v>
       </c>
       <c r="G46" s="2">
-        <v>61.1082941176471</v>
+        <v>61.108294117647098</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -19188,10 +19165,10 @@
         <v>10</v>
       </c>
       <c r="F47" s="2">
-        <v>12.858085106383</v>
+        <v>12.858085106382999</v>
       </c>
       <c r="G47" s="2">
-        <v>34.5831057021277</v>
+        <v>34.583105702127703</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -19214,7 +19191,7 @@
         <v>23.1302083333333</v>
       </c>
       <c r="G48" s="2">
-        <v>27.928475</v>
+        <v>27.928474999999999</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -19237,7 +19214,7 @@
         <v>22.15</v>
       </c>
       <c r="G49" s="2">
-        <v>81.276048</v>
+        <v>81.276048000000003</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -19254,13 +19231,13 @@
         <v>14.1</v>
       </c>
       <c r="E50" s="7">
-        <v>0.205686274509804</v>
+        <v>0.20568627450980401</v>
       </c>
       <c r="F50" s="2">
-        <v>20.0147058823529</v>
+        <v>20.014705882352899</v>
       </c>
       <c r="G50" s="2">
-        <v>76.1702117647059</v>
+        <v>76.170211764705897</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -19277,7 +19254,7 @@
         <v>14.6</v>
       </c>
       <c r="E51" s="7">
-        <v>0.153303571428571</v>
+        <v>0.15330357142857101</v>
       </c>
       <c r="F51" s="2">
         <v>9.58928571428571</v>
@@ -19300,7 +19277,7 @@
         <v>17.5</v>
       </c>
       <c r="E52" s="7">
-        <v>0.197901785714286</v>
+        <v>0.19790178571428599</v>
       </c>
       <c r="F52" s="2">
         <v>25.59375</v>
@@ -19323,13 +19300,13 @@
         <v>15.6</v>
       </c>
       <c r="E53" s="7">
-        <v>0.198346774193548</v>
+        <v>0.19834677419354799</v>
       </c>
       <c r="F53" s="2">
         <v>17.7258064516129</v>
       </c>
       <c r="G53" s="2">
-        <v>74.4681282258065</v>
+        <v>74.468128225806495</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -19346,13 +19323,13 @@
         <v>16.3</v>
       </c>
       <c r="E54" s="7">
-        <v>0.274675925925926</v>
+        <v>0.27467592592592599</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2">
-        <v>75.4473074074074</v>
+        <v>75.447307407407393</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -19375,7 +19352,7 @@
         <v>24.5254237288136</v>
       </c>
       <c r="G55" s="2">
-        <v>74.5457415254237</v>
+        <v>74.545741525423693</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -19395,10 +19372,10 @@
         <v>0.24866935483871</v>
       </c>
       <c r="F56" s="2">
-        <v>26.7016129032258</v>
+        <v>26.701612903225801</v>
       </c>
       <c r="G56" s="2">
-        <v>93.2257298387097</v>
+        <v>93.225729838709697</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -19415,10 +19392,10 @@
         <v>15.1</v>
       </c>
       <c r="E57" s="7">
-        <v>0.27198275862069</v>
+        <v>0.27198275862068999</v>
       </c>
       <c r="F57" s="2">
-        <v>25.4913793103448</v>
+        <v>25.491379310344801</v>
       </c>
       <c r="G57" s="2">
         <v>71.562675862069</v>
@@ -19438,10 +19415,10 @@
         <v>16.8</v>
       </c>
       <c r="E58" s="7">
-        <v>0.249541666666667</v>
+        <v>0.24954166666666699</v>
       </c>
       <c r="F58" s="2">
-        <v>26.925</v>
+        <v>26.925000000000001</v>
       </c>
       <c r="G58" s="2">
         <v>54.14358</v>
@@ -19467,7 +19444,7 @@
         <v>41.45</v>
       </c>
       <c r="G59" s="2">
-        <v>53.965215</v>
+        <v>53.965215000000001</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -19487,10 +19464,10 @@
         <v>0.174463276836158</v>
       </c>
       <c r="F60" s="2">
-        <v>23.7796610169492</v>
+        <v>23.779661016949198</v>
       </c>
       <c r="G60" s="2">
-        <v>42.1098305084746</v>
+        <v>42.109830508474602</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -19507,13 +19484,13 @@
         <v>13.2</v>
       </c>
       <c r="E61" s="7">
-        <v>0.204759615384615</v>
+        <v>0.20475961538461501</v>
       </c>
       <c r="F61" s="2">
-        <v>20.6346153846154</v>
+        <v>20.634615384615401</v>
       </c>
       <c r="G61" s="2">
-        <v>59.9384615384615</v>
+        <v>59.938461538461503</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -19533,10 +19510,10 @@
         <v>0.185294117647059</v>
       </c>
       <c r="F62" s="2">
-        <v>18.9705882352941</v>
+        <v>18.970588235294102</v>
       </c>
       <c r="G62" s="2">
-        <v>57.8396710784314</v>
+        <v>57.839671078431401</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -19553,13 +19530,13 @@
         <v>11.6</v>
       </c>
       <c r="E63" s="7">
-        <v>0.1490625</v>
+        <v>0.14906249999999999</v>
       </c>
       <c r="F63" s="2">
         <v>15.1640625</v>
       </c>
       <c r="G63" s="2">
-        <v>50.010546875</v>
+        <v>50.010546875000003</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -19582,7 +19559,7 @@
         <v>20.635593220339</v>
       </c>
       <c r="G64" s="2">
-        <v>49.9994491525424</v>
+        <v>49.999449152542397</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -19599,13 +19576,13 @@
         <v>14.3</v>
       </c>
       <c r="E65" s="7">
-        <v>0.2375</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="F65" s="2">
         <v>15.515873015873</v>
       </c>
       <c r="G65" s="2">
-        <v>44.840873015873</v>
+        <v>44.840873015873001</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -19622,7 +19599,7 @@
         <v>14.7</v>
       </c>
       <c r="E66" s="7">
-        <v>0.276060037523451</v>
+        <v>0.27606003752345099</v>
       </c>
       <c r="F66" s="2">
         <v>25.5512195121951</v>
@@ -19645,7 +19622,7 @@
         <v>13.5</v>
       </c>
       <c r="E67" s="7">
-        <v>0.258291054739652</v>
+        <v>0.25829105473965203</v>
       </c>
       <c r="F67" s="2">
         <v>19.8629906542056</v>
@@ -19656,23 +19633,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="AB9"/>
   <sheetViews>
-    <sheetView zoomScale="38" zoomScaleNormal="38" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="AD70" sqref="AD70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="28:28">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HBExerciseStudy_2200vs4200.xlsx
+++ b/HBExerciseStudy_2200vs4200.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wag001\Desktop\Tatum_Group_Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\Tatum_Group_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E7030-9BBC-440D-9EDF-11549ACFB717}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="5415" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -259,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -348,7 +346,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -387,7 +385,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -574,6 +571,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5761-4941-A020-6FE83D148C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -720,6 +722,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5761-4941-A020-6FE83D148C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -780,7 +787,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -810,7 +816,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -898,7 +904,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -979,7 +984,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1047,7 +1051,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1268,6 +1272,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C78E-4D70-969E-536C6E50A0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1426,6 +1435,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C78E-4D70-969E-536C6E50A0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1486,7 +1500,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1605,7 +1618,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1686,7 +1698,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1754,7 +1765,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1793,7 +1804,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1968,6 +1978,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A084-4746-A4B8-A7BDB493B591}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2108,6 +2123,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A084-4746-A4B8-A7BDB493B591}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2168,7 +2188,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2287,7 +2306,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2368,7 +2386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2436,7 +2453,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2475,7 +2492,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2656,6 +2672,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E40-47F9-BE8C-8FD0FC70D30B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2820,6 +2841,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E40-47F9-BE8C-8FD0FC70D30B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2880,7 +2906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3086,7 +3111,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3154,7 +3178,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3193,7 +3217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3530,6 +3553,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F28-482A-BC2F-67F5726568CB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3814,6 +3842,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6F28-482A-BC2F-67F5726568CB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3874,7 +3907,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3993,7 +4025,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4074,7 +4105,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4142,7 +4172,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4181,7 +4211,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4356,6 +4385,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C08-440B-87FA-FCFBFC7D8D12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4514,6 +4548,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6C08-440B-87FA-FCFBFC7D8D12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4574,7 +4613,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4604,7 +4642,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4692,7 +4730,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4773,7 +4810,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4841,7 +4877,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4880,7 +4916,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5055,6 +5090,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D677-4C4F-8D02-CB9EBD227523}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5207,6 +5247,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D677-4C4F-8D02-CB9EBD227523}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5268,7 +5313,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5298,7 +5342,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5386,7 +5430,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5467,7 +5510,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5535,7 +5577,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5574,7 +5616,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5767,6 +5808,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88BF-423D-9BB1-AE0D32DEE39B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5913,6 +5959,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-88BF-423D-9BB1-AE0D32DEE39B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5973,7 +6024,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6003,7 +6053,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6091,7 +6141,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6172,7 +6221,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6240,7 +6288,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6279,7 +6327,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6514,6 +6561,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCA2-4B1E-9FF2-D7862B87CFD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6714,6 +6766,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BCA2-4B1E-9FF2-D7862B87CFD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6774,7 +6831,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6804,7 +6860,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6980,7 +7036,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7048,7 +7103,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7087,7 +7142,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7280,6 +7334,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A91-455D-8FC2-C38348760EFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7432,6 +7491,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A91-455D-8FC2-C38348760EFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7492,7 +7556,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7610,7 +7673,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7691,7 +7753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7759,7 +7820,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7798,7 +7859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7991,6 +8051,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21BB-4F66-B42A-3A4169D2D23B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8131,6 +8196,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-21BB-4F66-B42A-3A4169D2D23B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8191,7 +8261,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8310,7 +8379,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8391,7 +8459,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8459,7 +8526,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8498,7 +8565,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8673,6 +8739,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D704-42E6-95AB-CFDA9A38BA57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8813,6 +8884,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D704-42E6-95AB-CFDA9A38BA57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8999,7 +9075,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9080,7 +9155,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9148,7 +9222,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9187,7 +9261,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9404,6 +9477,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D60A-456E-922E-376EA6A4CEAB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9604,6 +9682,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D60A-456E-922E-376EA6A4CEAB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9664,7 +9747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9782,7 +9864,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9863,7 +9944,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17175,7 +17255,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17205,7 +17291,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17235,7 +17327,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17265,7 +17363,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17295,7 +17399,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17325,7 +17435,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17355,7 +17471,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17385,7 +17507,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17415,7 +17543,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17445,7 +17579,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17475,7 +17615,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17505,7 +17651,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17535,7 +17687,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17551,294 +17709,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="4200"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="D2">
-            <v>17.5</v>
-          </cell>
-          <cell r="I2">
-            <v>52.955707511111157</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>18.7</v>
-          </cell>
-          <cell r="I3">
-            <v>76.881693925925816</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>16</v>
-          </cell>
-          <cell r="I4">
-            <v>53.12485641891903</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>18.100000000000001</v>
-          </cell>
-          <cell r="I5">
-            <v>84.726565000000036</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>16.399999999999999</v>
-          </cell>
-          <cell r="I6">
-            <v>62.099505454545508</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>18.2</v>
-          </cell>
-          <cell r="I7">
-            <v>52.087508789062589</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>16.5</v>
-          </cell>
-          <cell r="I8">
-            <v>70.611599999999868</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>14.8</v>
-          </cell>
-          <cell r="I9">
-            <v>44.317895918367299</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>14.1</v>
-          </cell>
-          <cell r="I10">
-            <v>27.302839732142836</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>12.1</v>
-          </cell>
-          <cell r="I11">
-            <v>49.417121559633095</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>14.3</v>
-          </cell>
-          <cell r="I12">
-            <v>36.29685178571426</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>11.5</v>
-          </cell>
-          <cell r="I13">
-            <v>38.18971701515148</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>14.6</v>
-          </cell>
-          <cell r="I14">
-            <v>61.108294117647162</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>14.3</v>
-          </cell>
-          <cell r="I15">
-            <v>34.583105702127718</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>13.1</v>
-          </cell>
-          <cell r="I16">
-            <v>27.928474999999953</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>14.6</v>
-          </cell>
-          <cell r="I17">
-            <v>81.276048000000031</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>14.1</v>
-          </cell>
-          <cell r="I18">
-            <v>76.170211764705911</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>14.6</v>
-          </cell>
-          <cell r="I19">
-            <v>52.783400000000107</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>17.5</v>
-          </cell>
-          <cell r="I20">
-            <v>61.554023437500113</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>15.6</v>
-          </cell>
-          <cell r="I21">
-            <v>74.468128225806524</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>16.3</v>
-          </cell>
-          <cell r="I22">
-            <v>75.447307407407408</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>15.6</v>
-          </cell>
-          <cell r="I23">
-            <v>74.545741525423722</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>15.6</v>
-          </cell>
-          <cell r="I24">
-            <v>93.225729838709782</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>15.1</v>
-          </cell>
-          <cell r="I25">
-            <v>71.562675862069099</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>16.8</v>
-          </cell>
-          <cell r="I26">
-            <v>54.143580000000121</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>14</v>
-          </cell>
-          <cell r="I27">
-            <v>53.965214999999851</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>13.7</v>
-          </cell>
-          <cell r="I28">
-            <v>42.109830508474573</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>13.2</v>
-          </cell>
-          <cell r="I29">
-            <v>59.938461538461539</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>10.3</v>
-          </cell>
-          <cell r="I30">
-            <v>57.83967107843123</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>11.6</v>
-          </cell>
-          <cell r="I31">
-            <v>50.010546874999967</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>12.9</v>
-          </cell>
-          <cell r="I32">
-            <v>49.999449152542397</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>14.3</v>
-          </cell>
-          <cell r="I33">
-            <v>44.840873015873036</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>14.7</v>
-          </cell>
-          <cell r="I34">
-            <v>58.259335609755986</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>13.5</v>
-          </cell>
-          <cell r="I35">
-            <v>47.720835046728979</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18098,15 +17968,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
@@ -19637,10 +19508,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
